--- a/src/data/mesbg_data.xlsx
+++ b/src/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01ED80B-5A4B-407B-93E7-B0DB76D1D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A3282-1533-4099-AD8C-FEEF904D17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14769" uniqueCount="3849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14773" uniqueCount="3851">
   <si>
     <t>faction</t>
   </si>
@@ -11740,6 +11740,12 @@
   </si>
   <si>
     <t>Aragorn, Strider must be included for the Historical alliance level between The Dead of Dunharrow and The Rangers</t>
+  </si>
+  <si>
+    <t>["[rivendell] elladan_&amp;_elrohir", "[rivendell] lindir", "[rivendell] arwen", "[rivendell] bilbo_baggins"]</t>
+  </si>
+  <si>
+    <t>If Gil-Galad is included in the same force as either Arwen, Lindir, Elladan &amp; Elrohir or Bilbo Baggins, you automatically become Impossible Allies with all armies, and lose your army bonus.</t>
   </si>
 </sst>
 </file>
@@ -12298,7 +12304,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227:A536"/>
+      <selection pane="bottomLeft" activeCell="A351" sqref="A351:A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20906,7 +20912,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>1013</v>
       </c>
@@ -25618,7 +25624,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>1057</v>
       </c>
@@ -25656,7 +25662,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>1058</v>
       </c>
@@ -25694,7 +25700,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>1059</v>
       </c>
@@ -25732,7 +25738,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
         <v>1060</v>
       </c>
@@ -25770,7 +25776,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>1061</v>
       </c>
@@ -25808,7 +25814,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
         <v>1062</v>
       </c>
@@ -25846,7 +25852,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>1063</v>
       </c>
@@ -25884,7 +25890,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>1064</v>
       </c>
@@ -25922,7 +25928,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
         <v>1065</v>
       </c>
@@ -25960,7 +25966,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>1066</v>
       </c>
@@ -25998,7 +26004,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>1570</v>
       </c>
@@ -26036,7 +26042,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>1067</v>
       </c>
@@ -26074,7 +26080,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>1966</v>
       </c>
@@ -26112,7 +26118,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>1965</v>
       </c>
@@ -26150,7 +26156,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>1967</v>
       </c>
@@ -29570,7 +29576,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
         <v>1096</v>
       </c>
@@ -32648,7 +32654,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="s">
         <v>1522</v>
       </c>
@@ -46330,15 +46336,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L895" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Good Army"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Aragorn, King Elessar"/>
-        <filter val="Aragorn, Strider"/>
+        <filter val="Rivendell"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -46357,9 +46357,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1649"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C335" sqref="C335"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52559,7 +52559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>600</v>
       </c>
@@ -52580,7 +52580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>602</v>
       </c>
@@ -52601,7 +52601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
         <v>603</v>
       </c>
@@ -52622,7 +52622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
         <v>604</v>
       </c>
@@ -52643,7 +52643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
         <v>605</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
         <v>606</v>
       </c>
@@ -53539,7 +53539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
         <v>653</v>
       </c>
@@ -53560,7 +53560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
         <v>654</v>
       </c>
@@ -53581,7 +53581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>655</v>
       </c>
@@ -53602,7 +53602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
         <v>656</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>657</v>
       </c>
@@ -53644,7 +53644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>658</v>
       </c>
@@ -53665,7 +53665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
         <v>659</v>
       </c>
@@ -53686,7 +53686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
         <v>660</v>
       </c>
@@ -53709,7 +53709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
         <v>661</v>
       </c>
@@ -53730,7 +53730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
         <v>662</v>
       </c>
@@ -53751,7 +53751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
         <v>663</v>
       </c>
@@ -53772,7 +53772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>664</v>
       </c>
@@ -53793,7 +53793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
         <v>665</v>
       </c>
@@ -56755,7 +56755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="9" t="s">
         <v>818</v>
       </c>
@@ -56766,7 +56766,7 @@
         <v>449</v>
       </c>
       <c r="D485" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E485" s="6" t="s">
         <v>3838</v>
@@ -56778,7 +56778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="9" t="s">
         <v>819</v>
       </c>
@@ -56799,7 +56799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="9" t="s">
         <v>820</v>
       </c>
@@ -72126,7 +72126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1196" s="9" t="s">
         <v>2532</v>
       </c>
@@ -72147,7 +72147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1197" s="9" t="s">
         <v>2533</v>
       </c>
@@ -72170,7 +72170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1198" s="9" t="s">
         <v>2534</v>
       </c>
@@ -72191,7 +72191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1199" s="9" t="s">
         <v>2535</v>
       </c>
@@ -72212,7 +72212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1200" s="9" t="s">
         <v>2536</v>
       </c>
@@ -72233,7 +72233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1201" s="9" t="s">
         <v>2537</v>
       </c>
@@ -72254,7 +72254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1202" s="9" t="s">
         <v>2538</v>
       </c>
@@ -81648,10 +81648,7 @@
   <autoFilter ref="A1:G1649" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
     <filterColumn colId="1">
       <filters>
-        <filter val="[far_harad] war_mumak_of_far_harad"/>
-        <filter val="[grand_army_of_the_south] war_mumak_of_grand_army_of_the_south"/>
-        <filter val="[grand_army_of_the_south] war_mumak_of_harad"/>
-        <filter val="[the_serpent_horde] war_mumak_of_harad"/>
+        <filter val="[minas_tirith] avenger_bolt_thrower"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -83065,7 +83062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:E618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
     </sheetView>
@@ -92199,10 +92196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -92424,144 +92421,144 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>944</v>
+        <v>1065</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1592</v>
+        <v>1549</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1613</v>
+        <v>3849</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1593</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>1594</v>
+        <v>944</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>3133</v>
+        <v>1592</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1595</v>
+        <v>1613</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>3133</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>839</v>
+        <v>1599</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1592</v>
+        <v>3133</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1631</v>
+        <v>1597</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1632</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>1636</v>
+        <v>839</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1667</v>
+        <v>1631</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1668</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>942</v>
+        <v>1636</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1710</v>
+        <v>1667</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1709</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>868</v>
+        <v>942</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1751</v>
+        <v>1710</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1668</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>1780</v>
+        <v>1751</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1779</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>1801</v>
+        <v>1780</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1800</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>1835</v>
+        <v>1801</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1668</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -92572,10 +92569,10 @@
         <v>1592</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1837</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -92586,52 +92583,52 @@
         <v>1592</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>1861</v>
+        <v>1834</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1862</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>1884</v>
+        <v>1861</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1632</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>957</v>
+        <v>866</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>2091</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -92642,41 +92639,41 @@
         <v>1592</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>854</v>
+        <v>957</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2089</v>
+        <v>1919</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>945</v>
+        <v>854</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2153</v>
+        <v>2089</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>945</v>
       </c>
@@ -92684,80 +92681,80 @@
         <v>1592</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>855</v>
+        <v>945</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2702</v>
+        <v>2155</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2703</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2192</v>
+        <v>2702</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2193</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>916</v>
+        <v>849</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2217</v>
+        <v>2192</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2218</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2225</v>
+        <v>2217</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2262</v>
+        <v>2225</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2260</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -92768,94 +92765,94 @@
         <v>1592</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>850</v>
+        <v>919</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2587</v>
+        <v>2263</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2588</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2614</v>
+        <v>2587</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>2615</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>2632</v>
+        <v>851</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>3745</v>
+        <v>2614</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>3744</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>887</v>
+        <v>2632</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>2666</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+    <row r="46" spans="1:4" ht="65" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>2669</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>2688</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>2689</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>2711</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -92866,10 +92863,10 @@
         <v>1592</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -92880,85 +92877,85 @@
         <v>1592</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>2713</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="50" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
         <v>2733</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>2732</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="52" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
-        <v>2992</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>1549</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="52" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>2993</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>2971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>3134</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>3122</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>3136</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
         <v>3120</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>3135</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
-        <v>3260</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>3261</v>
+      <c r="C53" s="11" t="s">
+        <v>3135</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3687</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>3133</v>
@@ -92967,12 +92964,12 @@
         <v>3261</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>3133</v>
@@ -92981,12 +92978,12 @@
         <v>3261</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>3694</v>
+        <v>3263</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>3133</v>
@@ -92995,26 +92992,26 @@
         <v>3261</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>3269</v>
+        <v>3694</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>3133</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>3275</v>
+      <c r="C57" s="13" t="s">
+        <v>3261</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>3273</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>3133</v>
@@ -93023,12 +93020,12 @@
         <v>3275</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>3133</v>
@@ -93037,12 +93034,12 @@
         <v>3275</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>3133</v>
@@ -93051,26 +93048,26 @@
         <v>3275</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>3277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>3278</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>3279</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>3280</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>3278</v>
@@ -93084,7 +93081,7 @@
     </row>
     <row r="63" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>3278</v>
@@ -93098,7 +93095,7 @@
     </row>
     <row r="64" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>3278</v>
@@ -93112,7 +93109,7 @@
     </row>
     <row r="65" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>1528</v>
+        <v>3272</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>3278</v>
@@ -93121,12 +93118,12 @@
         <v>3279</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>3278</v>
@@ -93135,12 +93132,12 @@
         <v>3279</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>3278</v>
@@ -93149,49 +93146,49 @@
         <v>3279</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>3283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A68" s="24" t="s">
-        <v>3311</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
-        <v>3333</v>
+        <v>3311</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>3133</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A70" s="24" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>3335</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>3336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>3386</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>3389</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -93202,10 +93199,10 @@
         <v>1592</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>3398</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -93216,55 +93213,55 @@
         <v>1592</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
-        <v>929</v>
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>3395</v>
+        <v>3388</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>3425</v>
+        <v>3395</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="104" x14ac:dyDescent="0.35">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>3551</v>
+        <v>3425</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="104" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>886</v>
       </c>
@@ -93272,66 +93269,66 @@
         <v>1592</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>953</v>
+        <v>886</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>3493</v>
+        <v>3552</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>3513</v>
+        <v>3493</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>3514</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>3548</v>
+        <v>3513</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>3549</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>3596</v>
+        <v>3548</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>3597</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -93342,24 +93339,24 @@
         <v>1592</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3599</v>
+        <v>3596</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>242</v>
+        <v>939</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -93370,94 +93367,94 @@
         <v>1592</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3602</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>241</v>
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>1592</v>
       </c>
       <c r="C84" s="11" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>3605</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>3606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
-        <v>3643</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>3672</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>3675</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>3670</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>3672</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3695</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>3399</v>
+        <v>3644</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>3672</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>2910</v>
+        <v>3399</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>3672</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>239</v>
+        <v>2910</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>3672</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>3846</v>
+        <v>3677</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>3847</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.35">
@@ -93468,9 +93465,23 @@
         <v>3672</v>
       </c>
       <c r="C90" s="11" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>3845</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>3848</v>
       </c>
     </row>

--- a/src/data/mesbg_data.xlsx
+++ b/src/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A3282-1533-4099-AD8C-FEEF904D17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4582AB-594C-4FBC-ADA7-D70510206B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="warning_rules" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">factions!$A$1:$E$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$E$511</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$L$895</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$G$1649</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14773" uniqueCount="3851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14772" uniqueCount="3851">
   <si>
     <t>faction</t>
   </si>
@@ -81664,10 +81665,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -81696,7 +81698,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
@@ -81713,7 +81715,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
@@ -81730,7 +81732,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>123</v>
       </c>
@@ -81747,7 +81749,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="130" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>1636</v>
       </c>
@@ -81760,7 +81762,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -81777,7 +81779,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>834</v>
       </c>
@@ -81794,7 +81796,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>71</v>
       </c>
@@ -81811,7 +81813,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>838</v>
       </c>
@@ -81828,7 +81830,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="130" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>839</v>
       </c>
@@ -81841,7 +81843,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>840</v>
       </c>
@@ -81854,7 +81856,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>238</v>
       </c>
@@ -81871,7 +81873,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>844</v>
       </c>
@@ -81888,7 +81890,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -81905,7 +81907,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="195" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>849</v>
       </c>
@@ -81918,7 +81920,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="221" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>850</v>
       </c>
@@ -81931,7 +81933,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="299" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="299" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>851</v>
       </c>
@@ -81944,7 +81946,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>3024</v>
       </c>
@@ -81961,7 +81963,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>3022</v>
       </c>
@@ -81978,7 +81980,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>854</v>
       </c>
@@ -81991,7 +81993,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>855</v>
       </c>
@@ -82004,7 +82006,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>239</v>
       </c>
@@ -82021,7 +82023,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>242</v>
       </c>
@@ -82034,7 +82036,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>236</v>
       </c>
@@ -82051,7 +82053,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>858</v>
       </c>
@@ -82085,7 +82087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="390" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="390" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>866</v>
       </c>
@@ -82098,7 +82100,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>867</v>
       </c>
@@ -82111,7 +82113,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="208" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="208" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>868</v>
       </c>
@@ -82124,7 +82126,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>3337</v>
       </c>
@@ -82141,7 +82143,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>240</v>
       </c>
@@ -82156,7 +82158,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>243</v>
       </c>
@@ -82171,7 +82173,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>204</v>
       </c>
@@ -82188,7 +82190,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="169" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>241</v>
       </c>
@@ -82201,7 +82203,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>875</v>
       </c>
@@ -82218,7 +82220,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>879</v>
       </c>
@@ -82235,7 +82237,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="286" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="286" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>881</v>
       </c>
@@ -82248,7 +82250,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>2995</v>
       </c>
@@ -82265,7 +82267,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>2972</v>
       </c>
@@ -82282,7 +82284,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>883</v>
       </c>
@@ -82299,7 +82301,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>885</v>
       </c>
@@ -82312,7 +82314,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="325" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="325" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>886</v>
       </c>
@@ -82325,7 +82327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>887</v>
       </c>
@@ -82338,7 +82340,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>888</v>
       </c>
@@ -82355,7 +82357,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="104" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>891</v>
       </c>
@@ -82368,7 +82370,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>58</v>
       </c>
@@ -82385,7 +82387,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="156" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>895</v>
       </c>
@@ -82402,7 +82404,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="156" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="156" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>897</v>
       </c>
@@ -82419,7 +82421,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>899</v>
       </c>
@@ -82436,7 +82438,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="130" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="130" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>206</v>
       </c>
@@ -82453,7 +82455,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>903</v>
       </c>
@@ -82470,7 +82472,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>906</v>
       </c>
@@ -82487,7 +82489,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>205</v>
       </c>
@@ -82504,9 +82506,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="169" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
-        <v>2632</v>
+    <row r="54" spans="1:5" ht="169" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
+        <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>2728</v>
@@ -82517,7 +82519,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="325" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="325" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>911</v>
       </c>
@@ -82530,7 +82532,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>912</v>
       </c>
@@ -82547,7 +82549,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>915</v>
       </c>
@@ -82564,7 +82566,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="221" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>916</v>
       </c>
@@ -82577,7 +82579,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>917</v>
       </c>
@@ -82594,7 +82596,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="247" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>919</v>
       </c>
@@ -82607,7 +82609,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="247" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="247" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>920</v>
       </c>
@@ -82637,7 +82639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>924</v>
       </c>
@@ -82654,7 +82656,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>928</v>
       </c>
@@ -82667,7 +82669,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="377" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>929</v>
       </c>
@@ -82680,7 +82682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>930</v>
       </c>
@@ -82697,7 +82699,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>932</v>
       </c>
@@ -82714,7 +82716,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="169" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>935</v>
       </c>
@@ -82727,7 +82729,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>936</v>
       </c>
@@ -82744,7 +82746,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="364" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="364" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>939</v>
       </c>
@@ -82757,7 +82759,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>940</v>
       </c>
@@ -82774,7 +82776,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>942</v>
       </c>
@@ -82787,7 +82789,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="169" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="169" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>944</v>
       </c>
@@ -82813,7 +82815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="78" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>947</v>
       </c>
@@ -82830,7 +82832,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="117" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>950</v>
       </c>
@@ -82843,7 +82845,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>951</v>
       </c>
@@ -82860,7 +82862,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>953</v>
       </c>
@@ -82873,7 +82875,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>954</v>
       </c>
@@ -82890,7 +82892,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="195" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>956</v>
       </c>
@@ -82903,7 +82905,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="299" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="299" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>957</v>
       </c>
@@ -82916,7 +82918,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>3608</v>
       </c>
@@ -82933,7 +82935,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="143" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="143" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>3617</v>
       </c>
@@ -82950,7 +82952,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="52" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>3618</v>
       </c>
@@ -82967,7 +82969,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="65" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>3399</v>
       </c>
@@ -82984,7 +82986,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>1448</v>
       </c>
@@ -83001,7 +83003,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>2910</v>
       </c>
@@ -83018,7 +83020,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>3643</v>
       </c>
@@ -83035,7 +83037,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>3644</v>
       </c>
@@ -83053,6 +83055,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E89" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="0.5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -92198,7 +92207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -92841,7 +92850,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="65" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="52" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>2669</v>
       </c>

--- a/src/data/mesbg_data.xlsx
+++ b/src/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAB38E-8FC1-4F8F-AECF-2A7C2968441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646EB6D-41DE-4270-8985-0E81DAC1BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hero_constraints!$A$1:$E$511</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$L$895</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$G$1649</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">warning_rules!$A$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46474,7 +46475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:G1683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1663" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1683" sqref="B1683"/>
     </sheetView>
@@ -93057,10 +93058,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -93086,7 +93088,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>1539</v>
       </c>
@@ -93100,7 +93102,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>1100</v>
       </c>
@@ -93114,7 +93116,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>1293</v>
       </c>
@@ -93128,7 +93130,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>1498</v>
       </c>
@@ -93184,7 +93186,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>1009</v>
       </c>
@@ -93198,7 +93200,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>1013</v>
       </c>
@@ -93240,7 +93242,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>1075</v>
       </c>
@@ -93254,7 +93256,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>1082</v>
       </c>
@@ -93296,7 +93298,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>944</v>
       </c>
@@ -93310,7 +93312,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>1594</v>
       </c>
@@ -93324,7 +93326,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>1599</v>
       </c>
@@ -93338,7 +93340,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>839</v>
       </c>
@@ -93352,7 +93354,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>1636</v>
       </c>
@@ -93366,7 +93368,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>942</v>
       </c>
@@ -93380,7 +93382,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>868</v>
       </c>
@@ -93394,7 +93396,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>867</v>
       </c>
@@ -93408,7 +93410,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>840</v>
       </c>
@@ -93422,7 +93424,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>881</v>
       </c>
@@ -93436,7 +93438,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>881</v>
       </c>
@@ -93450,7 +93452,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>881</v>
       </c>
@@ -93464,7 +93466,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>891</v>
       </c>
@@ -93478,7 +93480,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>866</v>
       </c>
@@ -93492,7 +93494,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>957</v>
       </c>
@@ -93506,7 +93508,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>957</v>
       </c>
@@ -93520,7 +93522,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>854</v>
       </c>
@@ -93534,7 +93536,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>945</v>
       </c>
@@ -93548,7 +93550,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="39" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>945</v>
       </c>
@@ -93562,7 +93564,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>855</v>
       </c>
@@ -93576,7 +93578,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>849</v>
       </c>
@@ -93590,7 +93592,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>916</v>
       </c>
@@ -93604,7 +93606,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>911</v>
       </c>
@@ -93618,7 +93620,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>919</v>
       </c>
@@ -93632,7 +93634,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>919</v>
       </c>
@@ -93646,7 +93648,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>850</v>
       </c>
@@ -93660,7 +93662,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>851</v>
       </c>
@@ -93674,7 +93676,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>2632</v>
       </c>
@@ -93688,7 +93690,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>887</v>
       </c>
@@ -93702,7 +93704,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="52" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>2669</v>
       </c>
@@ -93716,7 +93718,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>944</v>
       </c>
@@ -93730,7 +93732,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>944</v>
       </c>
@@ -93744,7 +93746,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>944</v>
       </c>
@@ -93758,7 +93760,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>2733</v>
       </c>
@@ -93772,7 +93774,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="52" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="52" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>2992</v>
       </c>
@@ -93786,7 +93788,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>3103</v>
       </c>
@@ -93800,7 +93802,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>3120</v>
       </c>
@@ -93814,7 +93816,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>3260</v>
       </c>
@@ -93828,7 +93830,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>3262</v>
       </c>
@@ -93842,7 +93844,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>3263</v>
       </c>
@@ -93856,7 +93858,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>3694</v>
       </c>
@@ -93870,7 +93872,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>3269</v>
       </c>
@@ -93884,7 +93886,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>3270</v>
       </c>
@@ -93898,7 +93900,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>3271</v>
       </c>
@@ -93912,7 +93914,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>3272</v>
       </c>
@@ -94024,7 +94026,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>3311</v>
       </c>
@@ -94038,7 +94040,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>3333</v>
       </c>
@@ -94052,7 +94054,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>928</v>
       </c>
@@ -94066,7 +94068,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>928</v>
       </c>
@@ -94080,7 +94082,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>928</v>
       </c>
@@ -94094,7 +94096,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>929</v>
       </c>
@@ -94108,7 +94110,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>885</v>
       </c>
@@ -94122,7 +94124,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="104" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="104" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>886</v>
       </c>
@@ -94136,7 +94138,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>886</v>
       </c>
@@ -94150,7 +94152,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>953</v>
       </c>
@@ -94164,7 +94166,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>935</v>
       </c>
@@ -94178,7 +94180,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>950</v>
       </c>
@@ -94192,7 +94194,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>939</v>
       </c>
@@ -94206,7 +94208,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>939</v>
       </c>
@@ -94220,7 +94222,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>242</v>
       </c>
@@ -94234,7 +94236,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>242</v>
       </c>
@@ -94248,7 +94250,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>241</v>
       </c>
@@ -94262,7 +94264,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>3643</v>
       </c>
@@ -94276,7 +94278,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>3644</v>
       </c>
@@ -94290,7 +94292,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>3399</v>
       </c>
@@ -94304,7 +94306,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>2910</v>
       </c>
@@ -94319,6 +94321,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D89" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="(Dark Denizens of Mirkwood) Warrior models may not lead warbands if the alliance level is 'Convenient' or 'Impossible', due to losing the necessary army bonus."/>
+        <filter val="(Sharkey's Rogues) Warrior models may not lead warbands if the alliance level is 'Convenient' or 'Impossible', due to losing the necessary army bonus."/>
+        <filter val="(The Dead of Dunharrow) Warrior models may not lead warbands if the alliance level is 'Convenient' or 'Impossible', due to losing the necessary army bonus."/>
+        <filter val="(Wildmen of Druadan) Warrior models may not lead warbands if the alliance level is 'Convenient' or 'Impossible', due to losing the necessary army bonus."/>
+        <filter val="If Arathorn is included in the same force as Aragorn, you automatically lose your army bonus and become impossible allies with all other army lists."/>
+        <filter val="If Bandobras Took is included in the same force as any named Hobbit Hero models, you automatically lose your army bonus and become impossible allies with all other army lists."/>
+        <filter val="If Bilbo is included in the same force as Frodo, Sam, Merry or Pippin, you automatically lose your army bonus and become impossible allies with all other army lists."/>
+        <filter val="If Eorl the Young is included in the same force as any named Rohan Hero models, you automatically lose your army bonus and become impossible allies with all other army lists."/>
+        <filter val="If Gil-Galad is included in the same force as either Arwen, Lindir, Elladan &amp; Elrohir or Bilbo Baggins, you automatically become Impossible Allies with all armies, and lose your army bonus."/>
+        <filter val="If Gil-Galad is included in the your force, you automatically become Impossible Allies with all except Numenor (Historical) and Lothlorien, Fangorn and The Misty Mountains (Convenient)."/>
+        <filter val="If Helm Hammerhand is included in your force, you automatically become impossible allies with all other army lists."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/data/mesbg_data.xlsx
+++ b/src/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646EB6D-41DE-4270-8985-0E81DAC1BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F38EA-1ABD-45AB-9C1F-70DBC414A05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -12425,11 +12425,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L895"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A818" sqref="A818"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H896" sqref="H896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12487,7 +12488,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1189</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1212</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1190</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1191</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1213</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>975</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1192</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>976</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>977</v>
       </c>
@@ -12829,7 +12830,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>1193</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1194</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2264</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2265</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>1924</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>3700</v>
       </c>
@@ -13057,7 +13058,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>1923</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>2660</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>2663</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2694</v>
       </c>
@@ -13209,7 +13210,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>2664</v>
       </c>
@@ -13247,7 +13248,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2661</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>3701</v>
       </c>
@@ -13323,7 +13324,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>2657</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>2658</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>2659</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>2662</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1501</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>1500</v>
       </c>
@@ -13551,7 +13552,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1499</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2003</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>2005</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>2638</v>
       </c>
@@ -13703,7 +13704,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>2635</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>2633</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>2634</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>2636</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>3702</v>
       </c>
@@ -13893,7 +13894,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>2637</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>2695</v>
       </c>
@@ -13969,7 +13970,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>966</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>967</v>
       </c>
@@ -14045,7 +14046,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>968</v>
       </c>
@@ -14083,7 +14084,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>969</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>970</v>
       </c>
@@ -14159,7 +14160,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>971</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>972</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>973</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>974</v>
       </c>
@@ -14311,7 +14312,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>1928</v>
       </c>
@@ -14349,7 +14350,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>1926</v>
       </c>
@@ -14387,7 +14388,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>1927</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>1929</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1932</v>
       </c>
@@ -14501,7 +14502,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>1925</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>1930</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>1931</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>1875</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>1876</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>1877</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>1878</v>
       </c>
@@ -14767,7 +14768,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>1879</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>1880</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>1881</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>1882</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>2255</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>2250</v>
       </c>
@@ -14995,7 +14996,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>2252</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>2253</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>2256</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>2257</v>
       </c>
@@ -15147,7 +15148,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>2251</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>2254</v>
       </c>
@@ -15223,7 +15224,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>1362</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>1357</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>1356</v>
       </c>
@@ -15337,7 +15338,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>1358</v>
       </c>
@@ -15375,7 +15376,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>1360</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>1361</v>
       </c>
@@ -15451,7 +15452,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>1359</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>2266</v>
       </c>
@@ -15527,7 +15528,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2267</v>
       </c>
@@ -15565,7 +15566,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>2001</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>1996</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>1740</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>1739</v>
       </c>
@@ -15717,7 +15718,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>1741</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>1742</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>1743</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>1747</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>1748</v>
       </c>
@@ -15907,7 +15908,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>1749</v>
       </c>
@@ -15945,7 +15946,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>1745</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>1744</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>1746</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>2015</v>
       </c>
@@ -16097,7 +16098,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>2014</v>
       </c>
@@ -16135,7 +16136,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>2016</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>1907</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>1903</v>
       </c>
@@ -16249,7 +16250,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>1917</v>
       </c>
@@ -16287,7 +16288,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>1902</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>1904</v>
       </c>
@@ -16363,7 +16364,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>1909</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>1910</v>
       </c>
@@ -16439,7 +16440,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>1918</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>1913</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>1915</v>
       </c>
@@ -16553,7 +16554,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>1912</v>
       </c>
@@ -16591,7 +16592,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>1914</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>1916</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>1908</v>
       </c>
@@ -16705,7 +16706,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>1905</v>
       </c>
@@ -16743,7 +16744,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>1911</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>1906</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>2043</v>
       </c>
@@ -16857,7 +16858,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>2029</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>2268</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>2042</v>
       </c>
@@ -16971,7 +16972,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>2030</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>2212</v>
       </c>
@@ -17047,7 +17048,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>2199</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>2213</v>
       </c>
@@ -17123,7 +17124,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>2214</v>
       </c>
@@ -17161,7 +17162,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>2215</v>
       </c>
@@ -17199,7 +17200,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>2300</v>
       </c>
@@ -17237,7 +17238,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>2301</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>2201</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>2198</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>2302</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>2200</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>1502</v>
       </c>
@@ -17465,7 +17466,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>1503</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>1504</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>3703</v>
       </c>
@@ -17579,7 +17580,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>1367</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>1364</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>1365</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>1366</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>2269</v>
       </c>
@@ -17769,7 +17770,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>1999</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>2000</v>
       </c>
@@ -17845,7 +17846,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>2143</v>
       </c>
@@ -17883,7 +17884,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>2101</v>
       </c>
@@ -17921,7 +17922,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>2147</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>2148</v>
       </c>
@@ -17997,7 +17998,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>2097</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>2093</v>
       </c>
@@ -18073,7 +18074,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>2099</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>2696</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>2149</v>
       </c>
@@ -18187,7 +18188,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>2144</v>
       </c>
@@ -18225,7 +18226,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>2096</v>
       </c>
@@ -18263,7 +18264,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>2270</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>2098</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>2271</v>
       </c>
@@ -18377,7 +18378,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>2094</v>
       </c>
@@ -18415,7 +18416,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>2100</v>
       </c>
@@ -18453,7 +18454,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>2272</v>
       </c>
@@ -18491,7 +18492,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>2095</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>978</v>
       </c>
@@ -18567,7 +18568,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>1857</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>1858</v>
       </c>
@@ -18643,7 +18644,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>1859</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>2027</v>
       </c>
@@ -18757,7 +18758,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>2026</v>
       </c>
@@ -18795,7 +18796,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>2028</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>979</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>980</v>
       </c>
@@ -18909,7 +18910,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>981</v>
       </c>
@@ -18947,7 +18948,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>982</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>983</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>984</v>
       </c>
@@ -19061,7 +19062,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>985</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>986</v>
       </c>
@@ -19137,7 +19138,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>2697</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>987</v>
       </c>
@@ -19213,7 +19214,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>988</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>989</v>
       </c>
@@ -19289,7 +19290,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>990</v>
       </c>
@@ -19327,7 +19328,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>991</v>
       </c>
@@ -19365,7 +19366,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>992</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>993</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>994</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>995</v>
       </c>
@@ -19517,7 +19518,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>1934</v>
       </c>
@@ -19555,7 +19556,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>1935</v>
       </c>
@@ -19593,7 +19594,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>1937</v>
       </c>
@@ -19631,7 +19632,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>3704</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>3705</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>2273</v>
       </c>
@@ -19745,7 +19746,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>2274</v>
       </c>
@@ -19783,7 +19784,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>2275</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>1940</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>1939</v>
       </c>
@@ -19897,7 +19898,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>1938</v>
       </c>
@@ -19935,7 +19936,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>1933</v>
       </c>
@@ -19973,7 +19974,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>1941</v>
       </c>
@@ -20011,7 +20012,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>1936</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>997</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>998</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>999</v>
       </c>
@@ -20163,7 +20164,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>1000</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20239,7 +20240,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>1002</v>
       </c>
@@ -20277,7 +20278,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>1003</v>
       </c>
@@ -20315,7 +20316,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>2276</v>
       </c>
@@ -20391,7 +20392,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>1942</v>
       </c>
@@ -20429,7 +20430,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>1944</v>
       </c>
@@ -20467,7 +20468,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>1943</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>1945</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>2188</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
         <v>2189</v>
       </c>
@@ -20619,7 +20620,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>2185</v>
       </c>
@@ -20657,7 +20658,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
         <v>2183</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>2190</v>
       </c>
@@ -20733,7 +20734,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>2184</v>
       </c>
@@ -20771,7 +20772,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>1006</v>
       </c>
@@ -20809,7 +20810,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>1007</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>1008</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>1009</v>
       </c>
@@ -20923,7 +20924,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>1010</v>
       </c>
@@ -20961,7 +20962,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>1011</v>
       </c>
@@ -20999,7 +21000,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>1012</v>
       </c>
@@ -21037,7 +21038,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>1013</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>1014</v>
       </c>
@@ -21113,7 +21114,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>1015</v>
       </c>
@@ -21151,7 +21152,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>1016</v>
       </c>
@@ -21189,7 +21190,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>1017</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>1018</v>
       </c>
@@ -21265,7 +21266,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>1430</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>1019</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>1020</v>
       </c>
@@ -21379,7 +21380,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>1021</v>
       </c>
@@ -21417,7 +21418,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>1022</v>
       </c>
@@ -21455,7 +21456,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>1948</v>
       </c>
@@ -21493,7 +21494,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>1946</v>
       </c>
@@ -21531,7 +21532,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>1950</v>
       </c>
@@ -21569,7 +21570,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>1949</v>
       </c>
@@ -21607,7 +21608,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>1947</v>
       </c>
@@ -21645,7 +21646,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>1951</v>
       </c>
@@ -21683,7 +21684,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>1952</v>
       </c>
@@ -21721,7 +21722,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>1953</v>
       </c>
@@ -21759,7 +21760,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>1023</v>
       </c>
@@ -21797,7 +21798,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>2698</v>
       </c>
@@ -21835,7 +21836,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>1024</v>
       </c>
@@ -21873,7 +21874,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>1025</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>1026</v>
       </c>
@@ -21949,7 +21950,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>1027</v>
       </c>
@@ -21987,7 +21988,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>1028</v>
       </c>
@@ -22025,7 +22026,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>1029</v>
       </c>
@@ -22063,7 +22064,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>1030</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>1031</v>
       </c>
@@ -22139,7 +22140,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>1032</v>
       </c>
@@ -22177,7 +22178,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>1033</v>
       </c>
@@ -22215,7 +22216,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>1034</v>
       </c>
@@ -22253,7 +22254,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>1035</v>
       </c>
@@ -22291,7 +22292,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>1036</v>
       </c>
@@ -22329,7 +22330,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>1037</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>1038</v>
       </c>
@@ -22405,7 +22406,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>1039</v>
       </c>
@@ -22443,7 +22444,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>1040</v>
       </c>
@@ -22481,7 +22482,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>1041</v>
       </c>
@@ -22519,7 +22520,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>1042</v>
       </c>
@@ -22557,7 +22558,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>1043</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>1044</v>
       </c>
@@ -22633,7 +22634,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>1045</v>
       </c>
@@ -22671,7 +22672,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>1046</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>1047</v>
       </c>
@@ -22747,7 +22748,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>1048</v>
       </c>
@@ -22785,7 +22786,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>1049</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>1050</v>
       </c>
@@ -22861,7 +22862,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
         <v>1051</v>
       </c>
@@ -22899,7 +22900,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>1052</v>
       </c>
@@ -22937,7 +22938,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>1053</v>
       </c>
@@ -22975,7 +22976,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>1054</v>
       </c>
@@ -23013,7 +23014,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>1055</v>
       </c>
@@ -23051,7 +23052,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>1960</v>
       </c>
@@ -23089,7 +23090,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>1957</v>
       </c>
@@ -23127,7 +23128,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>1958</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>3262</v>
       </c>
@@ -23203,7 +23204,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>3263</v>
       </c>
@@ -23241,7 +23242,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>1961</v>
       </c>
@@ -23279,7 +23280,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>1954</v>
       </c>
@@ -23317,7 +23318,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>1964</v>
       </c>
@@ -23355,7 +23356,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>2277</v>
       </c>
@@ -23393,7 +23394,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>1955</v>
       </c>
@@ -23431,7 +23432,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>1959</v>
       </c>
@@ -23469,7 +23470,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
         <v>3260</v>
       </c>
@@ -23507,7 +23508,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>1956</v>
       </c>
@@ -23545,7 +23546,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>1963</v>
       </c>
@@ -23583,7 +23584,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>1962</v>
       </c>
@@ -23621,7 +23622,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>1234</v>
       </c>
@@ -23659,7 +23660,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>1235</v>
       </c>
@@ -23697,7 +23698,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>1236</v>
       </c>
@@ -23735,7 +23736,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>1237</v>
       </c>
@@ -23773,7 +23774,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="s">
         <v>1238</v>
       </c>
@@ -23811,7 +23812,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>1239</v>
       </c>
@@ -23849,7 +23850,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>1240</v>
       </c>
@@ -23887,7 +23888,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="s">
         <v>1241</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
         <v>1242</v>
       </c>
@@ -23963,7 +23964,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="5" t="s">
         <v>1243</v>
       </c>
@@ -24001,7 +24002,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>1244</v>
       </c>
@@ -24039,7 +24040,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>1245</v>
       </c>
@@ -24077,7 +24078,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>3706</v>
       </c>
@@ -24115,7 +24116,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
         <v>2278</v>
       </c>
@@ -24153,7 +24154,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>2279</v>
       </c>
@@ -24191,7 +24192,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>2195</v>
       </c>
@@ -24229,7 +24230,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>3707</v>
       </c>
@@ -24267,7 +24268,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>2280</v>
       </c>
@@ -24305,7 +24306,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>1992</v>
       </c>
@@ -24343,7 +24344,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>2281</v>
       </c>
@@ -24381,7 +24382,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>3708</v>
       </c>
@@ -24419,7 +24420,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>1993</v>
       </c>
@@ -24457,7 +24458,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>1506</v>
       </c>
@@ -24495,7 +24496,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
         <v>1507</v>
       </c>
@@ -24533,7 +24534,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
         <v>1508</v>
       </c>
@@ -24571,7 +24572,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
         <v>2004</v>
       </c>
@@ -24609,7 +24610,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>1825</v>
       </c>
@@ -24647,7 +24648,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>1826</v>
       </c>
@@ -24685,7 +24686,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
         <v>1827</v>
       </c>
@@ -24723,7 +24724,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>1828</v>
       </c>
@@ -24761,7 +24762,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
         <v>1829</v>
       </c>
@@ -24799,7 +24800,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>1830</v>
       </c>
@@ -24837,7 +24838,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
         <v>1832</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>1831</v>
       </c>
@@ -24913,7 +24914,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
         <v>2024</v>
       </c>
@@ -24989,7 +24990,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
         <v>2023</v>
       </c>
@@ -25027,7 +25028,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>2282</v>
       </c>
@@ -25065,7 +25066,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>1600</v>
       </c>
@@ -25103,7 +25104,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
         <v>1601</v>
       </c>
@@ -25141,7 +25142,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>1611</v>
       </c>
@@ -25179,7 +25180,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>1609</v>
       </c>
@@ -25217,7 +25218,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>1603</v>
       </c>
@@ -25255,7 +25256,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>1594</v>
       </c>
@@ -25293,7 +25294,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
         <v>1605</v>
       </c>
@@ -25331,7 +25332,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
         <v>1606</v>
       </c>
@@ -25369,7 +25370,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>1607</v>
       </c>
@@ -25407,7 +25408,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>2006</v>
       </c>
@@ -25445,7 +25446,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>2007</v>
       </c>
@@ -25483,7 +25484,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>1614</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>2008</v>
       </c>
@@ -25559,7 +25560,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>1795</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>1796</v>
       </c>
@@ -25635,7 +25636,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>1798</v>
       </c>
@@ -25673,7 +25674,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
         <v>1797</v>
       </c>
@@ -25749,7 +25750,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>1057</v>
       </c>
@@ -25787,7 +25788,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>1058</v>
       </c>
@@ -25825,7 +25826,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>1059</v>
       </c>
@@ -25863,7 +25864,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
         <v>1060</v>
       </c>
@@ -25901,7 +25902,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>1061</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
         <v>1062</v>
       </c>
@@ -25977,7 +25978,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>1063</v>
       </c>
@@ -26015,7 +26016,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>1064</v>
       </c>
@@ -26053,7 +26054,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
         <v>1065</v>
       </c>
@@ -26091,7 +26092,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>1066</v>
       </c>
@@ -26129,7 +26130,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>1570</v>
       </c>
@@ -26167,7 +26168,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>1067</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>1966</v>
       </c>
@@ -26243,7 +26244,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>1965</v>
       </c>
@@ -26281,7 +26282,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>1967</v>
       </c>
@@ -26319,7 +26320,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
         <v>1068</v>
       </c>
@@ -26357,7 +26358,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>1069</v>
       </c>
@@ -26395,7 +26396,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>1070</v>
       </c>
@@ -26433,7 +26434,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
         <v>1071</v>
       </c>
@@ -26471,7 +26472,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>1072</v>
       </c>
@@ -26509,7 +26510,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
         <v>1073</v>
       </c>
@@ -26547,7 +26548,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>1074</v>
       </c>
@@ -26585,7 +26586,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
         <v>1075</v>
       </c>
@@ -26623,7 +26624,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
         <v>1076</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
         <v>1077</v>
       </c>
@@ -26699,7 +26700,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>1078</v>
       </c>
@@ -26737,7 +26738,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>1079</v>
       </c>
@@ -26775,7 +26776,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
         <v>1081</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
         <v>1432</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
         <v>1080</v>
       </c>
@@ -26889,7 +26890,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>1082</v>
       </c>
@@ -26927,7 +26928,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>1083</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
         <v>1084</v>
       </c>
@@ -27003,7 +27004,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
         <v>2283</v>
       </c>
@@ -27079,7 +27080,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="s">
         <v>1970</v>
       </c>
@@ -27117,7 +27118,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
         <v>1969</v>
       </c>
@@ -27155,7 +27156,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
         <v>1971</v>
       </c>
@@ -27193,7 +27194,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
         <v>1511</v>
       </c>
@@ -27231,7 +27232,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="s">
         <v>3709</v>
       </c>
@@ -27269,7 +27270,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="5" t="s">
         <v>1515</v>
       </c>
@@ -27307,7 +27308,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="s">
         <v>1514</v>
       </c>
@@ -27345,7 +27346,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="5" t="s">
         <v>1528</v>
       </c>
@@ -27383,7 +27384,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="s">
         <v>1512</v>
       </c>
@@ -27421,7 +27422,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="s">
         <v>1513</v>
       </c>
@@ -27459,7 +27460,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="s">
         <v>1510</v>
       </c>
@@ -27497,7 +27498,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="5" t="s">
         <v>2002</v>
       </c>
@@ -27535,7 +27536,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="s">
         <v>2284</v>
       </c>
@@ -27573,7 +27574,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
         <v>2082</v>
       </c>
@@ -27611,7 +27612,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
         <v>2083</v>
       </c>
@@ -27649,7 +27650,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
         <v>2084</v>
       </c>
@@ -27687,7 +27688,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="s">
         <v>2085</v>
       </c>
@@ -27725,7 +27726,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="5" t="s">
         <v>2053</v>
       </c>
@@ -27763,7 +27764,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="5" t="s">
         <v>2086</v>
       </c>
@@ -27801,7 +27802,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="s">
         <v>2054</v>
       </c>
@@ -27839,7 +27840,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="5" t="s">
         <v>2087</v>
       </c>
@@ -27877,7 +27878,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="s">
         <v>2059</v>
       </c>
@@ -27915,7 +27916,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
         <v>3710</v>
       </c>
@@ -27953,7 +27954,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="s">
         <v>3711</v>
       </c>
@@ -27991,7 +27992,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
         <v>2285</v>
       </c>
@@ -28029,7 +28030,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
         <v>2055</v>
       </c>
@@ -28067,7 +28068,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
         <v>2060</v>
       </c>
@@ -28105,7 +28106,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
         <v>2699</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
         <v>2172</v>
       </c>
@@ -28181,7 +28182,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="s">
         <v>2173</v>
       </c>
@@ -28219,7 +28220,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="s">
         <v>2701</v>
       </c>
@@ -28257,7 +28258,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
         <v>2174</v>
       </c>
@@ -28295,7 +28296,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
         <v>2194</v>
       </c>
@@ -28333,7 +28334,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
         <v>2186</v>
       </c>
@@ -28371,7 +28372,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
         <v>2187</v>
       </c>
@@ -28409,7 +28410,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="7" t="s">
         <v>2220</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="7" t="s">
         <v>2219</v>
       </c>
@@ -28485,7 +28486,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="7" t="s">
         <v>2679</v>
       </c>
@@ -28523,7 +28524,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="7" t="s">
         <v>2680</v>
       </c>
@@ -28561,7 +28562,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="7" t="s">
         <v>2681</v>
       </c>
@@ -28599,7 +28600,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="7" t="s">
         <v>2682</v>
       </c>
@@ -28637,7 +28638,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="7" t="s">
         <v>2669</v>
       </c>
@@ -28675,7 +28676,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="7" t="s">
         <v>2683</v>
       </c>
@@ -28713,7 +28714,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="7" t="s">
         <v>2684</v>
       </c>
@@ -28751,7 +28752,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="7" t="s">
         <v>2685</v>
       </c>
@@ -28789,7 +28790,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="7" t="s">
         <v>2668</v>
       </c>
@@ -28827,7 +28828,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="7" t="s">
         <v>2670</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>962</v>
       </c>
@@ -28903,7 +28904,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
         <v>1532</v>
       </c>
@@ -28941,7 +28942,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
         <v>963</v>
       </c>
@@ -28979,7 +28980,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
         <v>2286</v>
       </c>
@@ -29017,7 +29018,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
         <v>1972</v>
       </c>
@@ -29055,7 +29056,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>1085</v>
       </c>
@@ -29093,7 +29094,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>1086</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
         <v>1087</v>
       </c>
@@ -29169,7 +29170,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
         <v>1088</v>
       </c>
@@ -29207,7 +29208,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>1089</v>
       </c>
@@ -29245,7 +29246,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>1090</v>
       </c>
@@ -29283,7 +29284,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
         <v>1091</v>
       </c>
@@ -29321,7 +29322,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="s">
         <v>1092</v>
       </c>
@@ -29359,7 +29360,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="5" t="s">
         <v>3712</v>
       </c>
@@ -29397,7 +29398,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="5" t="s">
         <v>2038</v>
       </c>
@@ -29435,7 +29436,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
         <v>1973</v>
       </c>
@@ -29473,7 +29474,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="s">
         <v>2287</v>
       </c>
@@ -29511,7 +29512,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="5" t="s">
         <v>2039</v>
       </c>
@@ -29549,7 +29550,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="s">
         <v>1974</v>
       </c>
@@ -29587,7 +29588,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
         <v>1093</v>
       </c>
@@ -29625,7 +29626,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
         <v>1094</v>
       </c>
@@ -29663,7 +29664,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="s">
         <v>1095</v>
       </c>
@@ -29701,7 +29702,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
         <v>1096</v>
       </c>
@@ -29739,7 +29740,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="s">
         <v>1097</v>
       </c>
@@ -29777,7 +29778,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
         <v>1098</v>
       </c>
@@ -29815,7 +29816,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
         <v>1099</v>
       </c>
@@ -29853,7 +29854,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
         <v>1100</v>
       </c>
@@ -29891,7 +29892,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
         <v>1101</v>
       </c>
@@ -29929,7 +29930,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="s">
         <v>1539</v>
       </c>
@@ -29967,7 +29968,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="s">
         <v>1102</v>
       </c>
@@ -30005,7 +30006,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="s">
         <v>1103</v>
       </c>
@@ -30043,7 +30044,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="5" t="s">
         <v>1104</v>
       </c>
@@ -30081,7 +30082,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
         <v>1105</v>
       </c>
@@ -30119,7 +30120,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="s">
         <v>1106</v>
       </c>
@@ -30157,7 +30158,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
         <v>1107</v>
       </c>
@@ -30195,7 +30196,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
         <v>1108</v>
       </c>
@@ -30233,7 +30234,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="s">
         <v>1977</v>
       </c>
@@ -30271,7 +30272,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="5" t="s">
         <v>1975</v>
       </c>
@@ -30309,7 +30310,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="5" t="s">
         <v>1978</v>
       </c>
@@ -30347,7 +30348,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="s">
         <v>1976</v>
       </c>
@@ -30385,7 +30386,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
         <v>2288</v>
       </c>
@@ -30423,7 +30424,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="s">
         <v>1627</v>
       </c>
@@ -30461,7 +30462,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="s">
         <v>1634</v>
       </c>
@@ -30499,7 +30500,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
         <v>1628</v>
       </c>
@@ -30537,7 +30538,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>1629</v>
       </c>
@@ -30575,7 +30576,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
         <v>1630</v>
       </c>
@@ -30613,7 +30614,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="s">
         <v>1635</v>
       </c>
@@ -30651,7 +30652,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
         <v>1110</v>
       </c>
@@ -30689,7 +30690,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="s">
         <v>1111</v>
       </c>
@@ -30727,7 +30728,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="5" t="s">
         <v>1112</v>
       </c>
@@ -30765,7 +30766,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="5" t="s">
         <v>1113</v>
       </c>
@@ -30803,7 +30804,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="5" t="s">
         <v>1114</v>
       </c>
@@ -30841,7 +30842,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="5" t="s">
         <v>1115</v>
       </c>
@@ -30879,7 +30880,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="5" t="s">
         <v>3713</v>
       </c>
@@ -30917,7 +30918,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="5" t="s">
         <v>1979</v>
       </c>
@@ -30955,7 +30956,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="5" t="s">
         <v>2040</v>
       </c>
@@ -30993,7 +30994,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="5" t="s">
         <v>2289</v>
       </c>
@@ -31031,7 +31032,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="s">
         <v>1980</v>
       </c>
@@ -31069,7 +31070,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="6" t="s">
         <v>2041</v>
       </c>
@@ -31107,7 +31108,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="5" t="s">
         <v>1116</v>
       </c>
@@ -31145,7 +31146,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="5" t="s">
         <v>1117</v>
       </c>
@@ -31183,7 +31184,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="5" t="s">
         <v>1118</v>
       </c>
@@ -31221,7 +31222,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="5" t="s">
         <v>1119</v>
       </c>
@@ -31259,7 +31260,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
         <v>1120</v>
       </c>
@@ -31297,7 +31298,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="5" t="s">
         <v>1121</v>
       </c>
@@ -31335,7 +31336,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="s">
         <v>1981</v>
       </c>
@@ -31373,7 +31374,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="5" t="s">
         <v>2733</v>
       </c>
@@ -31411,7 +31412,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="s">
         <v>2290</v>
       </c>
@@ -31449,7 +31450,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="5" t="s">
         <v>1984</v>
       </c>
@@ -31487,7 +31488,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="5" t="s">
         <v>1982</v>
       </c>
@@ -31525,7 +31526,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="5" t="s">
         <v>1983</v>
       </c>
@@ -31563,7 +31564,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="5" t="s">
         <v>1123</v>
       </c>
@@ -31601,7 +31602,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="5" t="s">
         <v>1124</v>
       </c>
@@ -31639,7 +31640,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="5" t="s">
         <v>1125</v>
       </c>
@@ -31677,7 +31678,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="5" t="s">
         <v>1126</v>
       </c>
@@ -31715,7 +31716,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="5" t="s">
         <v>1127</v>
       </c>
@@ -31753,7 +31754,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="5" t="s">
         <v>1128</v>
       </c>
@@ -31791,7 +31792,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="5" t="s">
         <v>1129</v>
       </c>
@@ -31829,7 +31830,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="5" t="s">
         <v>1985</v>
       </c>
@@ -31867,7 +31868,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="5" t="s">
         <v>3714</v>
       </c>
@@ -31905,7 +31906,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="5" t="s">
         <v>2291</v>
       </c>
@@ -31943,7 +31944,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="5" t="s">
         <v>2292</v>
       </c>
@@ -31981,7 +31982,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="5" t="s">
         <v>1986</v>
       </c>
@@ -32019,7 +32020,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="5" t="s">
         <v>1987</v>
       </c>
@@ -32057,7 +32058,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="5" t="s">
         <v>1703</v>
       </c>
@@ -32095,7 +32096,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="5" t="s">
         <v>1701</v>
       </c>
@@ -32133,7 +32134,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="5" t="s">
         <v>1693</v>
       </c>
@@ -32171,7 +32172,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="5" t="s">
         <v>1698</v>
       </c>
@@ -32209,7 +32210,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="5" t="s">
         <v>1694</v>
       </c>
@@ -32247,7 +32248,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="5" t="s">
         <v>1702</v>
       </c>
@@ -32285,7 +32286,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="5" t="s">
         <v>1695</v>
       </c>
@@ -32323,7 +32324,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="5" t="s">
         <v>1699</v>
       </c>
@@ -32361,7 +32362,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="5" t="s">
         <v>1704</v>
       </c>
@@ -32399,7 +32400,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="5" t="s">
         <v>1705</v>
       </c>
@@ -32437,7 +32438,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="5" t="s">
         <v>1696</v>
       </c>
@@ -32475,7 +32476,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="5" t="s">
         <v>1700</v>
       </c>
@@ -32513,7 +32514,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="5" t="s">
         <v>1697</v>
       </c>
@@ -32551,7 +32552,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="5" t="s">
         <v>2013</v>
       </c>
@@ -32589,7 +32590,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="5" t="s">
         <v>2011</v>
       </c>
@@ -32627,7 +32628,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="5" t="s">
         <v>2012</v>
       </c>
@@ -32665,7 +32666,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="5" t="s">
         <v>1516</v>
       </c>
@@ -32703,7 +32704,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="5" t="s">
         <v>3715</v>
       </c>
@@ -32741,7 +32742,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="5" t="s">
         <v>1520</v>
       </c>
@@ -32779,7 +32780,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="s">
         <v>1522</v>
       </c>
@@ -32817,7 +32818,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="5" t="s">
         <v>1518</v>
       </c>
@@ -32855,7 +32856,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="5" t="s">
         <v>1521</v>
       </c>
@@ -32893,7 +32894,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="5" t="s">
         <v>1519</v>
       </c>
@@ -32931,7 +32932,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="5" t="s">
         <v>1131</v>
       </c>
@@ -32969,7 +32970,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="5" t="s">
         <v>1132</v>
       </c>
@@ -33007,7 +33008,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="5" t="s">
         <v>1133</v>
       </c>
@@ -33045,7 +33046,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="5" t="s">
         <v>1134</v>
       </c>
@@ -33083,7 +33084,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="5" t="s">
         <v>1135</v>
       </c>
@@ -33121,7 +33122,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="5" t="s">
         <v>2293</v>
       </c>
@@ -33159,7 +33160,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="5" t="s">
         <v>1988</v>
       </c>
@@ -33197,7 +33198,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="5" t="s">
         <v>1658</v>
       </c>
@@ -33235,7 +33236,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="5" t="s">
         <v>1659</v>
       </c>
@@ -33273,7 +33274,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="5" t="s">
         <v>1660</v>
       </c>
@@ -33311,7 +33312,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="5" t="s">
         <v>1661</v>
       </c>
@@ -33349,7 +33350,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="5" t="s">
         <v>1662</v>
       </c>
@@ -33387,7 +33388,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="5" t="s">
         <v>1663</v>
       </c>
@@ -33425,7 +33426,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="5" t="s">
         <v>1664</v>
       </c>
@@ -33463,7 +33464,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="5" t="s">
         <v>2010</v>
       </c>
@@ -33539,7 +33540,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="5" t="s">
         <v>1354</v>
       </c>
@@ -33577,7 +33578,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="5" t="s">
         <v>1137</v>
       </c>
@@ -33615,7 +33616,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="5" t="s">
         <v>1353</v>
       </c>
@@ -33653,7 +33654,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="5" t="s">
         <v>1138</v>
       </c>
@@ -33691,7 +33692,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="5" t="s">
         <v>2700</v>
       </c>
@@ -33729,7 +33730,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="5" t="s">
         <v>1352</v>
       </c>
@@ -33767,7 +33768,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="5" t="s">
         <v>1139</v>
       </c>
@@ -33805,7 +33806,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="5" t="s">
         <v>1140</v>
       </c>
@@ -33843,7 +33844,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="5" t="s">
         <v>1141</v>
       </c>
@@ -33881,7 +33882,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="5" t="s">
         <v>2294</v>
       </c>
@@ -33919,7 +33920,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="5" t="s">
         <v>1989</v>
       </c>
@@ -33957,7 +33958,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="5" t="s">
         <v>2295</v>
       </c>
@@ -33995,7 +33996,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="5" t="s">
         <v>1991</v>
       </c>
@@ -34033,7 +34034,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="5" t="s">
         <v>2296</v>
       </c>
@@ -34071,7 +34072,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="5" t="s">
         <v>1990</v>
       </c>
@@ -34109,7 +34110,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="5" t="s">
         <v>1301</v>
       </c>
@@ -34147,7 +34148,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="5" t="s">
         <v>1297</v>
       </c>
@@ -34185,7 +34186,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="5" t="s">
         <v>1311</v>
       </c>
@@ -34223,7 +34224,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="5" t="s">
         <v>1294</v>
       </c>
@@ -34261,7 +34262,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="5" t="s">
         <v>1296</v>
       </c>
@@ -34299,7 +34300,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="5" t="s">
         <v>1298</v>
       </c>
@@ -34337,7 +34338,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="5" t="s">
         <v>1302</v>
       </c>
@@ -34375,7 +34376,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="5" t="s">
         <v>1303</v>
       </c>
@@ -34413,7 +34414,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="5" t="s">
         <v>1305</v>
       </c>
@@ -34451,7 +34452,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="5" t="s">
         <v>1312</v>
       </c>
@@ -34489,7 +34490,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="5" t="s">
         <v>1307</v>
       </c>
@@ -34527,7 +34528,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="5" t="s">
         <v>1309</v>
       </c>
@@ -34565,7 +34566,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="5" t="s">
         <v>1293</v>
       </c>
@@ -34603,7 +34604,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="5" t="s">
         <v>1306</v>
       </c>
@@ -34641,7 +34642,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="5" t="s">
         <v>1308</v>
       </c>
@@ -34679,7 +34680,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="5" t="s">
         <v>1295</v>
       </c>
@@ -34717,7 +34718,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="5" t="s">
         <v>1310</v>
       </c>
@@ -34755,7 +34756,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="5" t="s">
         <v>2848</v>
       </c>
@@ -34793,7 +34794,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="5" t="s">
         <v>1498</v>
       </c>
@@ -34831,7 +34832,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="5" t="s">
         <v>1299</v>
       </c>
@@ -34869,7 +34870,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="5" t="s">
         <v>1304</v>
       </c>
@@ -34907,7 +34908,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="5" t="s">
         <v>1300</v>
       </c>
@@ -34945,7 +34946,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="5" t="s">
         <v>1994</v>
       </c>
@@ -34983,7 +34984,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="5" t="s">
         <v>2297</v>
       </c>
@@ -35021,7 +35022,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="5" t="s">
         <v>1995</v>
       </c>
@@ -35059,7 +35060,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="7" t="s">
         <v>1773</v>
       </c>
@@ -35097,7 +35098,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="7" t="s">
         <v>1774</v>
       </c>
@@ -35135,7 +35136,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="7" t="s">
         <v>1775</v>
       </c>
@@ -35173,7 +35174,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="7" t="s">
         <v>1776</v>
       </c>
@@ -35234,7 +35235,7 @@
         <v>14</v>
       </c>
       <c r="H600" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" s="6" t="b">
         <v>0</v>
@@ -35249,7 +35250,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="7" t="s">
         <v>2019</v>
       </c>
@@ -35287,7 +35288,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="7" t="s">
         <v>2018</v>
       </c>
@@ -35325,7 +35326,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="7" t="s">
         <v>2020</v>
       </c>
@@ -35363,7 +35364,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="7" t="s">
         <v>2578</v>
       </c>
@@ -35401,7 +35402,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="7" t="s">
         <v>2579</v>
       </c>
@@ -35439,7 +35440,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="7" t="s">
         <v>2580</v>
       </c>
@@ -35477,7 +35478,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="7" t="s">
         <v>2581</v>
       </c>
@@ -35515,7 +35516,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="7" t="s">
         <v>2583</v>
       </c>
@@ -35553,7 +35554,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="7" t="s">
         <v>2582</v>
       </c>
@@ -35591,7 +35592,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="7" t="s">
         <v>2584</v>
       </c>
@@ -35629,7 +35630,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="7" t="s">
         <v>2590</v>
       </c>
@@ -35667,7 +35668,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="7" t="s">
         <v>2589</v>
       </c>
@@ -35705,7 +35706,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="5" t="s">
         <v>1426</v>
       </c>
@@ -35743,7 +35744,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="5" t="s">
         <v>1427</v>
       </c>
@@ -35781,7 +35782,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="5" t="s">
         <v>1997</v>
       </c>
@@ -35819,7 +35820,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="5" t="s">
         <v>2298</v>
       </c>
@@ -35857,7 +35858,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="5" t="s">
         <v>1998</v>
       </c>
@@ -35895,7 +35896,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="5" t="s">
         <v>1527</v>
       </c>
@@ -35933,7 +35934,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="5" t="s">
         <v>1524</v>
       </c>
@@ -35971,7 +35972,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="5" t="s">
         <v>2299</v>
       </c>
@@ -36009,7 +36010,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="7" t="s">
         <v>2591</v>
       </c>
@@ -36047,7 +36048,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="7" t="s">
         <v>2594</v>
       </c>
@@ -36085,7 +36086,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="7" t="s">
         <v>2593</v>
       </c>
@@ -36123,7 +36124,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="7" t="s">
         <v>2592</v>
       </c>
@@ -36161,7 +36162,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="7" t="s">
         <v>3716</v>
       </c>
@@ -36199,7 +36200,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="5" t="s">
         <v>3717</v>
       </c>
@@ -36237,7 +36238,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="7" t="s">
         <v>2746</v>
       </c>
@@ -36275,7 +36276,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="7" t="s">
         <v>2748</v>
       </c>
@@ -36313,7 +36314,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="7" t="s">
         <v>2749</v>
       </c>
@@ -36351,7 +36352,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="7" t="s">
         <v>2752</v>
       </c>
@@ -36389,7 +36390,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="7" t="s">
         <v>2754</v>
       </c>
@@ -36427,7 +36428,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="7" t="s">
         <v>2756</v>
       </c>
@@ -36465,7 +36466,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="7" t="s">
         <v>2758</v>
       </c>
@@ -36503,7 +36504,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="7" t="s">
         <v>2760</v>
       </c>
@@ -36541,7 +36542,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="7" t="s">
         <v>2761</v>
       </c>
@@ -36579,7 +36580,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="7" t="s">
         <v>2763</v>
       </c>
@@ -36617,7 +36618,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="7" t="s">
         <v>2765</v>
       </c>
@@ -36655,7 +36656,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="7" t="s">
         <v>2767</v>
       </c>
@@ -36693,7 +36694,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="7" t="s">
         <v>2769</v>
       </c>
@@ -36731,7 +36732,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="7" t="s">
         <v>2771</v>
       </c>
@@ -36769,7 +36770,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="7" t="s">
         <v>2773</v>
       </c>
@@ -36807,7 +36808,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="7" t="s">
         <v>2797</v>
       </c>
@@ -36845,7 +36846,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="5" t="s">
         <v>2802</v>
       </c>
@@ -36883,7 +36884,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="5" t="s">
         <v>2812</v>
       </c>
@@ -36921,7 +36922,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="5" t="s">
         <v>2805</v>
       </c>
@@ -36959,7 +36960,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="5" t="s">
         <v>2807</v>
       </c>
@@ -36997,7 +36998,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="5" t="s">
         <v>2813</v>
       </c>
@@ -37035,7 +37036,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="5" t="s">
         <v>2811</v>
       </c>
@@ -37073,7 +37074,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="5" t="s">
         <v>2815</v>
       </c>
@@ -37111,7 +37112,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="5" t="s">
         <v>2817</v>
       </c>
@@ -37149,7 +37150,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="5" t="s">
         <v>2819</v>
       </c>
@@ -37187,7 +37188,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="5" t="s">
         <v>2844</v>
       </c>
@@ -37225,7 +37226,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="7" t="s">
         <v>2865</v>
       </c>
@@ -37263,7 +37264,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="7" t="s">
         <v>2880</v>
       </c>
@@ -37301,7 +37302,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="7" t="s">
         <v>2884</v>
       </c>
@@ -37339,7 +37340,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="7" t="s">
         <v>3718</v>
       </c>
@@ -37377,7 +37378,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="7" t="s">
         <v>2890</v>
       </c>
@@ -37415,7 +37416,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="7" t="s">
         <v>2889</v>
       </c>
@@ -37453,7 +37454,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="7" t="s">
         <v>2908</v>
       </c>
@@ -37491,7 +37492,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="7" t="s">
         <v>2911</v>
       </c>
@@ -37529,7 +37530,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="7" t="s">
         <v>2914</v>
       </c>
@@ -37567,7 +37568,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="7" t="s">
         <v>2916</v>
       </c>
@@ -37605,7 +37606,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="7" t="s">
         <v>2918</v>
       </c>
@@ -37643,7 +37644,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="7" t="s">
         <v>2930</v>
       </c>
@@ -37681,7 +37682,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="7" t="s">
         <v>2931</v>
       </c>
@@ -37719,7 +37720,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="7" t="s">
         <v>2923</v>
       </c>
@@ -37757,7 +37758,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="7" t="s">
         <v>2932</v>
       </c>
@@ -37795,7 +37796,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="7" t="s">
         <v>2933</v>
       </c>
@@ -37833,7 +37834,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="7" t="s">
         <v>2934</v>
       </c>
@@ -37871,7 +37872,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="7" t="s">
         <v>2981</v>
       </c>
@@ -37909,7 +37910,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="7" t="s">
         <v>2983</v>
       </c>
@@ -37947,7 +37948,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="7" t="s">
         <v>2984</v>
       </c>
@@ -37985,7 +37986,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="7" t="s">
         <v>2985</v>
       </c>
@@ -38023,7 +38024,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="7" t="s">
         <v>2986</v>
       </c>
@@ -38061,7 +38062,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="7" t="s">
         <v>2973</v>
       </c>
@@ -38099,7 +38100,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="7" t="s">
         <v>2974</v>
       </c>
@@ -38137,7 +38138,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="7" t="s">
         <v>2987</v>
       </c>
@@ -38175,7 +38176,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="7" t="s">
         <v>2975</v>
       </c>
@@ -38213,7 +38214,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="7" t="s">
         <v>2988</v>
       </c>
@@ -38251,7 +38252,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="7" t="s">
         <v>2989</v>
       </c>
@@ -38289,7 +38290,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="7" t="s">
         <v>2990</v>
       </c>
@@ -38327,7 +38328,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="7" t="s">
         <v>2976</v>
       </c>
@@ -38365,7 +38366,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="7" t="s">
         <v>2992</v>
       </c>
@@ -38403,7 +38404,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="7" t="s">
         <v>2977</v>
       </c>
@@ -38441,7 +38442,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="7" t="s">
         <v>2978</v>
       </c>
@@ -38479,7 +38480,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="7" t="s">
         <v>2979</v>
       </c>
@@ -38517,7 +38518,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="7" t="s">
         <v>2980</v>
       </c>
@@ -38555,7 +38556,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="7" t="s">
         <v>3012</v>
       </c>
@@ -38593,7 +38594,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="7" t="s">
         <v>3013</v>
       </c>
@@ -38631,7 +38632,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="7" t="s">
         <v>3014</v>
       </c>
@@ -38669,7 +38670,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="7" t="s">
         <v>3015</v>
       </c>
@@ -38707,7 +38708,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="7" t="s">
         <v>3016</v>
       </c>
@@ -38745,7 +38746,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="7" t="s">
         <v>3017</v>
       </c>
@@ -38783,7 +38784,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="7" t="s">
         <v>2996</v>
       </c>
@@ -38821,7 +38822,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="7" t="s">
         <v>2997</v>
       </c>
@@ -38859,7 +38860,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="7" t="s">
         <v>2998</v>
       </c>
@@ -38897,7 +38898,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="7" t="s">
         <v>3018</v>
       </c>
@@ -38935,7 +38936,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="7" t="s">
         <v>3019</v>
       </c>
@@ -38973,7 +38974,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="7" t="s">
         <v>3049</v>
       </c>
@@ -39011,7 +39012,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="7" t="s">
         <v>3050</v>
       </c>
@@ -39049,7 +39050,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="7" t="s">
         <v>3028</v>
       </c>
@@ -39087,7 +39088,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="7" t="s">
         <v>3033</v>
       </c>
@@ -39125,7 +39126,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="7" t="s">
         <v>3032</v>
       </c>
@@ -39163,7 +39164,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="7" t="s">
         <v>3045</v>
       </c>
@@ -39201,7 +39202,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="7" t="s">
         <v>3057</v>
       </c>
@@ -39239,7 +39240,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="7" t="s">
         <v>3053</v>
       </c>
@@ -39277,7 +39278,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="7" t="s">
         <v>3054</v>
       </c>
@@ -39315,7 +39316,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="7" t="s">
         <v>3055</v>
       </c>
@@ -39353,7 +39354,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="7" t="s">
         <v>3056</v>
       </c>
@@ -39391,7 +39392,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="7" t="s">
         <v>3103</v>
       </c>
@@ -39429,7 +39430,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="7" t="s">
         <v>3091</v>
       </c>
@@ -39467,7 +39468,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="7" t="s">
         <v>3085</v>
       </c>
@@ -39505,7 +39506,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="7" t="s">
         <v>3084</v>
       </c>
@@ -39543,7 +39544,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="7" t="s">
         <v>3092</v>
       </c>
@@ -39581,7 +39582,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="7" t="s">
         <v>3093</v>
       </c>
@@ -39619,7 +39620,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="7" t="s">
         <v>3089</v>
       </c>
@@ -39657,7 +39658,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="7" t="s">
         <v>3094</v>
       </c>
@@ -39695,7 +39696,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="7" t="s">
         <v>3115</v>
       </c>
@@ -39733,7 +39734,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="7" t="s">
         <v>3106</v>
       </c>
@@ -39771,7 +39772,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="7" t="s">
         <v>3116</v>
       </c>
@@ -39809,7 +39810,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="7" t="s">
         <v>3117</v>
       </c>
@@ -39847,7 +39848,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="7" t="s">
         <v>3110</v>
       </c>
@@ -39885,7 +39886,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="7" t="s">
         <v>3112</v>
       </c>
@@ -39923,7 +39924,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="7" t="s">
         <v>3118</v>
       </c>
@@ -39961,7 +39962,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="7" t="s">
         <v>3119</v>
       </c>
@@ -39999,7 +40000,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="7" t="s">
         <v>3120</v>
       </c>
@@ -40037,7 +40038,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="7" t="s">
         <v>3114</v>
       </c>
@@ -40075,7 +40076,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="7" t="s">
         <v>3139</v>
       </c>
@@ -40113,7 +40114,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="7" t="s">
         <v>3148</v>
       </c>
@@ -40151,7 +40152,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="7" t="s">
         <v>3149</v>
       </c>
@@ -40189,7 +40190,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="7" t="s">
         <v>3719</v>
       </c>
@@ -40227,7 +40228,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="7" t="s">
         <v>3152</v>
       </c>
@@ -40265,7 +40266,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="7" t="s">
         <v>3168</v>
       </c>
@@ -40303,7 +40304,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="7" t="s">
         <v>3158</v>
       </c>
@@ -40341,7 +40342,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="7" t="s">
         <v>3160</v>
       </c>
@@ -40379,7 +40380,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="7" t="s">
         <v>3163</v>
       </c>
@@ -40417,7 +40418,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="7" t="s">
         <v>3169</v>
       </c>
@@ -40455,7 +40456,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="7" t="s">
         <v>3165</v>
       </c>
@@ -40493,7 +40494,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="7" t="s">
         <v>3179</v>
       </c>
@@ -40531,7 +40532,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="7" t="s">
         <v>3184</v>
       </c>
@@ -40569,7 +40570,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="7" t="s">
         <v>3720</v>
       </c>
@@ -40607,7 +40608,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="7" t="s">
         <v>3187</v>
       </c>
@@ -40645,7 +40646,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="7" t="s">
         <v>3189</v>
       </c>
@@ -40683,7 +40684,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="7" t="s">
         <v>3191</v>
       </c>
@@ -40721,7 +40722,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="7" t="s">
         <v>3194</v>
       </c>
@@ -40759,7 +40760,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="7" t="s">
         <v>3196</v>
       </c>
@@ -40797,7 +40798,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="7" t="s">
         <v>3217</v>
       </c>
@@ -40835,7 +40836,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="7" t="s">
         <v>3721</v>
       </c>
@@ -40873,7 +40874,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="7" t="s">
         <v>3722</v>
       </c>
@@ -40911,7 +40912,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="7" t="s">
         <v>3723</v>
       </c>
@@ -40949,7 +40950,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="7" t="s">
         <v>3226</v>
       </c>
@@ -40987,7 +40988,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="7" t="s">
         <v>3227</v>
       </c>
@@ -41025,7 +41026,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="7" t="s">
         <v>3724</v>
       </c>
@@ -41063,7 +41064,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="7" t="s">
         <v>3229</v>
       </c>
@@ -41101,7 +41102,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="7" t="s">
         <v>3231</v>
       </c>
@@ -41139,7 +41140,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="7" t="s">
         <v>3233</v>
       </c>
@@ -41177,7 +41178,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="7" t="s">
         <v>3235</v>
       </c>
@@ -41215,7 +41216,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="7" t="s">
         <v>3237</v>
       </c>
@@ -41253,7 +41254,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="7" t="s">
         <v>3257</v>
       </c>
@@ -41291,7 +41292,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="7" t="s">
         <v>3694</v>
       </c>
@@ -41329,7 +41330,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="7" t="s">
         <v>3267</v>
       </c>
@@ -41367,7 +41368,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="7" t="s">
         <v>3725</v>
       </c>
@@ -41405,7 +41406,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="7" t="s">
         <v>3726</v>
       </c>
@@ -41443,7 +41444,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="7" t="s">
         <v>3727</v>
       </c>
@@ -41481,7 +41482,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="7" t="s">
         <v>3728</v>
       </c>
@@ -41519,7 +41520,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="7" t="s">
         <v>3269</v>
       </c>
@@ -41557,7 +41558,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="7" t="s">
         <v>3270</v>
       </c>
@@ -41595,7 +41596,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="7" t="s">
         <v>3271</v>
       </c>
@@ -41633,7 +41634,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="7" t="s">
         <v>3272</v>
       </c>
@@ -41671,7 +41672,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="7" t="s">
         <v>3298</v>
       </c>
@@ -41709,7 +41710,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="7" t="s">
         <v>3304</v>
       </c>
@@ -41747,7 +41748,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="7" t="s">
         <v>3294</v>
       </c>
@@ -41785,7 +41786,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="7" t="s">
         <v>3295</v>
       </c>
@@ -41823,7 +41824,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="7" t="s">
         <v>3305</v>
       </c>
@@ -41861,7 +41862,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="7" t="s">
         <v>3306</v>
       </c>
@@ -41899,7 +41900,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="7" t="s">
         <v>3307</v>
       </c>
@@ -41937,7 +41938,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="7" t="s">
         <v>3296</v>
       </c>
@@ -41975,7 +41976,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="7" t="s">
         <v>3297</v>
       </c>
@@ -42013,7 +42014,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="7" t="s">
         <v>3308</v>
       </c>
@@ -42051,7 +42052,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="7" t="s">
         <v>3309</v>
       </c>
@@ -42089,7 +42090,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="7" t="s">
         <v>3310</v>
       </c>
@@ -42127,7 +42128,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="7" t="s">
         <v>3299</v>
       </c>
@@ -42165,7 +42166,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="7" t="s">
         <v>3300</v>
       </c>
@@ -42203,7 +42204,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="7" t="s">
         <v>3301</v>
       </c>
@@ -42241,7 +42242,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="7" t="s">
         <v>3302</v>
       </c>
@@ -42279,7 +42280,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="7" t="s">
         <v>3729</v>
       </c>
@@ -42317,7 +42318,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="7" t="s">
         <v>3730</v>
       </c>
@@ -42355,7 +42356,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="7" t="s">
         <v>3339</v>
       </c>
@@ -42393,7 +42394,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="7" t="s">
         <v>3341</v>
       </c>
@@ -42431,7 +42432,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="7" t="s">
         <v>3353</v>
       </c>
@@ -42469,7 +42470,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="7" t="s">
         <v>3354</v>
       </c>
@@ -42507,7 +42508,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="7" t="s">
         <v>3355</v>
       </c>
@@ -42545,7 +42546,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="7" t="s">
         <v>3356</v>
       </c>
@@ -42583,7 +42584,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="7" t="s">
         <v>3346</v>
       </c>
@@ -42621,7 +42622,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="7" t="s">
         <v>3347</v>
       </c>
@@ -42659,7 +42660,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="7" t="s">
         <v>3360</v>
       </c>
@@ -42697,7 +42698,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="7" t="s">
         <v>3367</v>
       </c>
@@ -42735,7 +42736,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="7" t="s">
         <v>3364</v>
       </c>
@@ -42773,7 +42774,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="7" t="s">
         <v>3368</v>
       </c>
@@ -42811,7 +42812,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="7" t="s">
         <v>3390</v>
       </c>
@@ -42849,7 +42850,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="7" t="s">
         <v>3391</v>
       </c>
@@ -42887,7 +42888,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="7" t="s">
         <v>3392</v>
       </c>
@@ -42925,7 +42926,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="7" t="s">
         <v>3393</v>
       </c>
@@ -42963,7 +42964,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="7" t="s">
         <v>3427</v>
       </c>
@@ -43001,7 +43002,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="7" t="s">
         <v>3380</v>
       </c>
@@ -43039,7 +43040,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="7" t="s">
         <v>3381</v>
       </c>
@@ -43077,7 +43078,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="7" t="s">
         <v>3382</v>
       </c>
@@ -43115,7 +43116,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="7" t="s">
         <v>3383</v>
       </c>
@@ -43153,7 +43154,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="7" t="s">
         <v>3384</v>
       </c>
@@ -43191,7 +43192,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="7" t="s">
         <v>3404</v>
       </c>
@@ -43229,7 +43230,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="7" t="s">
         <v>3405</v>
       </c>
@@ -43267,7 +43268,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="7" t="s">
         <v>3401</v>
       </c>
@@ -43305,7 +43306,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" s="7" t="s">
         <v>3422</v>
       </c>
@@ -43343,7 +43344,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="7" t="s">
         <v>3423</v>
       </c>
@@ -43381,7 +43382,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" s="7" t="s">
         <v>3419</v>
       </c>
@@ -43419,7 +43420,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" s="7" t="s">
         <v>3731</v>
       </c>
@@ -43457,7 +43458,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" s="7" t="s">
         <v>3420</v>
       </c>
@@ -43495,7 +43496,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" s="7" t="s">
         <v>3421</v>
       </c>
@@ -43533,7 +43534,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" s="7" t="s">
         <v>3454</v>
       </c>
@@ -43571,7 +43572,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" s="7" t="s">
         <v>3456</v>
       </c>
@@ -43609,7 +43610,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" s="7" t="s">
         <v>3457</v>
       </c>
@@ -43647,7 +43648,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" s="7" t="s">
         <v>3458</v>
       </c>
@@ -43685,7 +43686,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" s="7" t="s">
         <v>3459</v>
       </c>
@@ -43723,7 +43724,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" s="7" t="s">
         <v>3460</v>
       </c>
@@ -43761,7 +43762,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" s="7" t="s">
         <v>3451</v>
       </c>
@@ -43799,7 +43800,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" s="7" t="s">
         <v>3452</v>
       </c>
@@ -43837,7 +43838,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" s="7" t="s">
         <v>3453</v>
       </c>
@@ -43875,7 +43876,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7" t="s">
         <v>3461</v>
       </c>
@@ -43913,7 +43914,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" s="7" t="s">
         <v>3462</v>
       </c>
@@ -43951,7 +43952,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" s="7" t="s">
         <v>3463</v>
       </c>
@@ -43989,7 +43990,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" s="7" t="s">
         <v>3465</v>
       </c>
@@ -44027,7 +44028,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" s="7" t="s">
         <v>3448</v>
       </c>
@@ -44065,7 +44066,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" s="7" t="s">
         <v>3449</v>
       </c>
@@ -44103,7 +44104,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" s="7" t="s">
         <v>3450</v>
       </c>
@@ -44141,7 +44142,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" s="7" t="s">
         <v>3485</v>
       </c>
@@ -44179,7 +44180,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" s="7" t="s">
         <v>3490</v>
       </c>
@@ -44217,7 +44218,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" s="7" t="s">
         <v>3486</v>
       </c>
@@ -44255,7 +44256,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" s="7" t="s">
         <v>3488</v>
       </c>
@@ -44293,7 +44294,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" s="7" t="s">
         <v>3489</v>
       </c>
@@ -44331,7 +44332,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" s="7" t="s">
         <v>3487</v>
       </c>
@@ -44369,7 +44370,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" s="7" t="s">
         <v>3732</v>
       </c>
@@ -44407,7 +44408,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" s="7" t="s">
         <v>3491</v>
       </c>
@@ -44445,7 +44446,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" s="7" t="s">
         <v>3505</v>
       </c>
@@ -44483,7 +44484,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" s="7" t="s">
         <v>3506</v>
       </c>
@@ -44521,7 +44522,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" s="7" t="s">
         <v>3498</v>
       </c>
@@ -44559,7 +44560,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" s="7" t="s">
         <v>3499</v>
       </c>
@@ -44597,7 +44598,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" s="7" t="s">
         <v>3497</v>
       </c>
@@ -44635,7 +44636,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" s="7" t="s">
         <v>3507</v>
       </c>
@@ -44673,7 +44674,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" s="7" t="s">
         <v>3508</v>
       </c>
@@ -44711,7 +44712,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" s="7" t="s">
         <v>3500</v>
       </c>
@@ -44749,7 +44750,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" s="7" t="s">
         <v>3501</v>
       </c>
@@ -44787,7 +44788,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" s="7" t="s">
         <v>3509</v>
       </c>
@@ -44825,7 +44826,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" s="7" t="s">
         <v>3510</v>
       </c>
@@ -44863,7 +44864,7 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" s="7" t="s">
         <v>3511</v>
       </c>
@@ -44901,7 +44902,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" s="5" t="s">
         <v>3545</v>
       </c>
@@ -44939,7 +44940,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" s="5" t="s">
         <v>3517</v>
       </c>
@@ -44977,7 +44978,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" s="5" t="s">
         <v>3519</v>
       </c>
@@ -45015,7 +45016,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" s="5" t="s">
         <v>3520</v>
       </c>
@@ -45053,7 +45054,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" s="5" t="s">
         <v>3518</v>
       </c>
@@ -45091,7 +45092,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" s="5" t="s">
         <v>3546</v>
       </c>
@@ -45129,7 +45130,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" s="5" t="s">
         <v>3522</v>
       </c>
@@ -45167,7 +45168,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" s="5" t="s">
         <v>3523</v>
       </c>
@@ -45205,7 +45206,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" s="5" t="s">
         <v>3521</v>
       </c>
@@ -45243,7 +45244,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" s="5" t="s">
         <v>3733</v>
       </c>
@@ -45281,7 +45282,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" s="5" t="s">
         <v>3734</v>
       </c>
@@ -45319,7 +45320,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" s="5" t="s">
         <v>3735</v>
       </c>
@@ -45357,7 +45358,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" s="5" t="s">
         <v>3736</v>
       </c>
@@ -45395,7 +45396,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" s="7" t="s">
         <v>3553</v>
       </c>
@@ -45433,7 +45434,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" s="7" t="s">
         <v>3554</v>
       </c>
@@ -45471,7 +45472,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" s="7" t="s">
         <v>3555</v>
       </c>
@@ -45509,7 +45510,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" s="7" t="s">
         <v>3556</v>
       </c>
@@ -45547,7 +45548,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" s="7" t="s">
         <v>3557</v>
       </c>
@@ -45585,7 +45586,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" s="7" t="s">
         <v>3558</v>
       </c>
@@ -45623,7 +45624,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" s="7" t="s">
         <v>3559</v>
       </c>
@@ -45661,7 +45662,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" s="7" t="s">
         <v>3560</v>
       </c>
@@ -45699,7 +45700,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" s="7" t="s">
         <v>3737</v>
       </c>
@@ -45737,7 +45738,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" s="7" t="s">
         <v>3693</v>
       </c>
@@ -45775,7 +45776,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" s="7" t="s">
         <v>3566</v>
       </c>
@@ -45813,7 +45814,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" s="7" t="s">
         <v>3567</v>
       </c>
@@ -45851,7 +45852,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" s="7" t="s">
         <v>3565</v>
       </c>
@@ -45889,7 +45890,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" s="7" t="s">
         <v>3570</v>
       </c>
@@ -45927,7 +45928,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" s="7" t="s">
         <v>3569</v>
       </c>
@@ -45965,7 +45966,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" s="7" t="s">
         <v>3568</v>
       </c>
@@ -46003,7 +46004,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" s="7" t="s">
         <v>3738</v>
       </c>
@@ -46041,7 +46042,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" s="7" t="s">
         <v>3650</v>
       </c>
@@ -46079,7 +46080,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" s="7" t="s">
         <v>3651</v>
       </c>
@@ -46117,7 +46118,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" s="7" t="s">
         <v>3652</v>
       </c>
@@ -46155,7 +46156,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888" s="7" t="s">
         <v>3678</v>
       </c>
@@ -46193,7 +46194,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889" s="7" t="s">
         <v>3653</v>
       </c>
@@ -46231,7 +46232,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" s="7" t="s">
         <v>3680</v>
       </c>
@@ -46269,7 +46270,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" s="7" t="s">
         <v>3654</v>
       </c>
@@ -46307,7 +46308,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" s="7" t="s">
         <v>3655</v>
       </c>
@@ -46345,7 +46346,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893" s="7" t="s">
         <v>3656</v>
       </c>
@@ -46383,7 +46384,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" s="7" t="s">
         <v>3657</v>
       </c>
@@ -46421,7 +46422,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" s="7" t="s">
         <v>3739</v>
       </c>
@@ -46460,7 +46461,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L895" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:L895" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Rider of Rohan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J625">
     <sortCondition ref="C2:C625"/>
     <sortCondition ref="F2:F625"/>
@@ -93061,7 +93068,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
